--- a/biology/Botanique/Schoenoxiphium/Schoenoxiphium.xlsx
+++ b/biology/Botanique/Schoenoxiphium/Schoenoxiphium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schoenoxiphium est un genre de plantes herbacées appartenant à la famille des Cyperaceae, comprenant vingt-six espèces[2]. Elles se rencontrent surtout en Afrique du Sud, dans les régions montagneuses. L'espèce Schoenoxiphium madagascariense[3] se trouve en Afrique du Sud et à Madagascar.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schoenoxiphium est un genre de plantes herbacées appartenant à la famille des Cyperaceae, comprenant vingt-six espèces. Elles se rencontrent surtout en Afrique du Sud, dans les régions montagneuses. L'espèce Schoenoxiphium madagascariense se trouve en Afrique du Sud et à Madagascar.
 </t>
         </is>
       </c>
@@ -511,20 +523,22 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Schoenoxiphium altum Kukkonen (province du Cap)[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Schoenoxiphium altum Kukkonen (province du Cap)
 Schoenoxiphium basutorum Turrill
 Schoenoxiphium bracteosum Kukkonen
 Schoenoxiphium burkei (province du Cap)
 Schoenoxiphium burttii Kukkonen
 Schoenoxiphium caricinum Kük. (syn. de Kobresia fragilis, car cette espèce se trouve en Asie)
-Schoenoxiphium clarkeanum Kük. (syn. de Kobresia fragilis, car cette espèce se trouve en Asie[5])
-Schoenoxiphium ecklonii Nees (province du Cap)[6]
-Schoenoxiphium lanceum (Thunb.) Kük[7]. (pointe sud de l'Afrique du Sud)
-Schoenoxiphium lehmannii (Nees) Kunth ex Steud.[8] (Afrique du Sud et Kenya et vers l'Éthiopie)
-Schoenoxiphium schweickerdtii Merxm. &amp; Podlech[9] (est de l'Afrique du Sud)
-Schoenoxiphium sparteum (Afrique du Sud et Afrique orientale)[10]</t>
+Schoenoxiphium clarkeanum Kük. (syn. de Kobresia fragilis, car cette espèce se trouve en Asie)
+Schoenoxiphium ecklonii Nees (province du Cap)
+Schoenoxiphium lanceum (Thunb.) Kük. (pointe sud de l'Afrique du Sud)
+Schoenoxiphium lehmannii (Nees) Kunth ex Steud. (Afrique du Sud et Kenya et vers l'Éthiopie)
+Schoenoxiphium schweickerdtii Merxm. &amp; Podlech (est de l'Afrique du Sud)
+Schoenoxiphium sparteum (Afrique du Sud et Afrique orientale)</t>
         </is>
       </c>
     </row>
